--- a/service-system/target/classes/static/小桥结构尺寸.xlsx
+++ b/service-system/target/classes/static/小桥结构尺寸.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFAE5EC-BDD5-4173-B09F-018DCEBE8A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03732D0-C1C0-4E4C-AC39-D49B2F3F736B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,9 +83,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1830,7 +1830,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1839,7 +1839,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1854,13 +1866,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1869,35 +1881,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="429">
@@ -2634,7 +2634,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2651,76 +2651,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="24"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
@@ -3020,6 +3020,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -3027,13 +3034,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3050,37 +3050,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3093,10 +3093,10 @@
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.70069444444444495" right="0.70069444444444495" top="0.75138888888888899" bottom="0.75138888888888899" header="0.29861111111111099" footer="0.29861111111111099"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+    <oddHeader>&amp;C
+陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>